--- a/Rega_Local_Idcontador_origem_ZMC.xlsx
+++ b/Rega_Local_Idcontador_origem_ZMC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\ShareFiles\QGIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\ShareFiles\IL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A577903-46E0-41F3-9C39-2A63A3D3900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0313DBA3-1DD0-4C57-90D0-A08938ACEDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,9 +2023,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2063,7 +2063,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2169,7 +2169,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2311,7 +2311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2319,10 +2319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2358,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -3242,10 +3243,10 @@
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>153</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>155</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>159</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>161</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>163</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>167</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>169</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>171</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>173</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>175</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>177</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>179</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>181</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>185</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>187</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>189</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>193</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>195</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>199</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>207</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>211</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>213</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>223</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>225</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>227</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>229</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>231</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>235</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>237</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>244</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>248</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>250</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>254</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>256</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>262</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>264</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>266</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>270</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>280</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>289</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>291</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>293</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>295</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>297</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>299</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>301</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>303</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>305</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>307</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>309</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>311</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>313</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>315</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>317</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>319</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>321</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>323</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>325</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>327</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>329</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>331</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>333</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>335</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>337</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>339</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>341</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>363</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>390</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>397</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>400</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>404</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>406</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>408</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>410</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>411</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>411</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>416</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>418</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>437</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>438</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>450</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>458</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>462</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>465</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -7746,7 +7747,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G235" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G235" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PRVDL020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
